--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1288387.976574783</v>
+        <v>1286500.395058381</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>481530.9990854745</v>
+        <v>528858.7367917172</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>288.1041182974041</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>122.4523652507637</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +674,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,19 +713,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -786,7 +786,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>205.1478855987996</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>157.7229783759809</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +896,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>5.791117132838708</v>
       </c>
       <c r="X5" t="n">
-        <v>100.3298867443035</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>78.70870113465206</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>43.60620160013919</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1.382771042867707</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>382.50719346288</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>96.1236499844444</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>47.2001111481114</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>213.9145308202381</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,10 +1622,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113175</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>25.58923446922677</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>176.530542900156</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1895,10 +1895,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>139.1537278750035</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>238.4835961786409</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,19 +2293,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>49.53659395611928</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>278.0117271896563</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>82.47437332366425</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>118.4898845065123</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,19 +2713,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>109.0378289738605</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,19 +2761,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>204.1291651532056</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965536</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801217</v>
+        <v>91.2307060180122</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437425</v>
+        <v>90.21779139437427</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897913</v>
+        <v>45.40012322653414</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571497</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523577</v>
+        <v>54.76109577523584</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>13.33414467601668</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
         <v>231.319741708034</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692856</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373699</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463139</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415219</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463133</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1487.242648509747</v>
+        <v>1327.372931623164</v>
       </c>
       <c r="C2" t="n">
-        <v>1487.242648509747</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>1487.242648509747</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X2" t="n">
-        <v>1873.842488573869</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y2" t="n">
-        <v>1873.842488573869</v>
+        <v>1327.372931623164</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4425,7 +4425,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4434,16 +4434,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>520.9088977430002</v>
+        <v>2317.040372100974</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9727148150933</v>
+        <v>2317.040372100974</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>2317.040372100974</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>2317.040372100974</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>2317.040372100974</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>2317.040372100974</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W4" t="n">
-        <v>520.9088977430002</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X4" t="n">
-        <v>520.9088977430002</v>
+        <v>2537.832951244504</v>
       </c>
       <c r="Y4" t="n">
-        <v>520.9088977430002</v>
+        <v>2317.040372100974</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1036.358670716696</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.358670716696</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2267.209817970484</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>1914.44116270037</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="X5" t="n">
-        <v>1813.097842756629</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="Y5" t="n">
-        <v>1422.958510780817</v>
+        <v>2382.509002921313</v>
       </c>
     </row>
     <row r="6">
@@ -4644,22 +4644,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4668,7 +4668,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2080756496231</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>648.6252456865836</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406185</v>
+        <v>648.6252456865836</v>
       </c>
       <c r="T7" t="n">
-        <v>352.6741383092202</v>
+        <v>648.6252456865836</v>
       </c>
       <c r="U7" t="n">
-        <v>352.6741383092202</v>
+        <v>648.6252456865836</v>
       </c>
       <c r="V7" t="n">
-        <v>97.98965010333333</v>
+        <v>648.6252456865836</v>
       </c>
       <c r="W7" t="n">
-        <v>97.98965010333333</v>
+        <v>359.2080756496231</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2080756496231</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2080756496231</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1251.855211652197</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C8" t="n">
-        <v>882.8926947117852</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
         <v>882.8926947117852</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4835,19 +4835,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2695.752352591083</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2364.689465247513</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2011.920809977398</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1638.455051716319</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y8" t="n">
-        <v>1638.455051716319</v>
+        <v>1626.94664591678</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>268.5993065148977</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>268.5993065148977</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V10" t="n">
-        <v>268.5993065148977</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W10" t="n">
-        <v>268.5993065148977</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="X10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,40 +5024,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,7 +5066,7 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5106,37 +5106,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>158.4232288123694</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>158.4232288123694</v>
       </c>
       <c r="L12" t="n">
-        <v>1288.32563221405</v>
+        <v>772.3202985692583</v>
       </c>
       <c r="M12" t="n">
-        <v>1608.660951743751</v>
+        <v>1092.65561809896</v>
       </c>
       <c r="N12" t="n">
-        <v>1953.181607381369</v>
+        <v>1897.067196363111</v>
       </c>
       <c r="O12" t="n">
-        <v>2440.930027762787</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>441.9005583181192</v>
+        <v>544.6416868225886</v>
       </c>
       <c r="C13" t="n">
-        <v>441.9005583181192</v>
+        <v>544.6416868225886</v>
       </c>
       <c r="D13" t="n">
-        <v>291.7839189057835</v>
+        <v>394.5250474102528</v>
       </c>
       <c r="E13" t="n">
-        <v>291.7839189057835</v>
+        <v>394.5250474102528</v>
       </c>
       <c r="F13" t="n">
-        <v>144.8939714078731</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5197,16 +5197,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5227,22 +5227,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609666</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550798</v>
+        <v>1282.840986901097</v>
       </c>
       <c r="W13" t="n">
-        <v>441.9005583181192</v>
+        <v>993.423816864136</v>
       </c>
       <c r="X13" t="n">
-        <v>441.9005583181192</v>
+        <v>765.4342659661187</v>
       </c>
       <c r="Y13" t="n">
-        <v>441.9005583181192</v>
+        <v>544.6416868225886</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5343,31 +5343,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>222.5746515181233</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L15" t="n">
-        <v>452.5377573864724</v>
+        <v>836.4717212750121</v>
       </c>
       <c r="M15" t="n">
-        <v>967.0546881959771</v>
+        <v>1604.839867667474</v>
       </c>
       <c r="N15" t="n">
-        <v>1771.466266460128</v>
+        <v>1949.360523305092</v>
       </c>
       <c r="O15" t="n">
         <v>2440.930027762787</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>542.1367719529251</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C16" t="n">
-        <v>542.1367719529251</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V16" t="n">
-        <v>1009.867621687013</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W16" t="n">
-        <v>720.4504516500524</v>
+        <v>1361.993455534651</v>
       </c>
       <c r="X16" t="n">
-        <v>720.4504516500524</v>
+        <v>1361.993455534651</v>
       </c>
       <c r="Y16" t="n">
-        <v>542.1367719529251</v>
+        <v>1141.200876391121</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,22 +5525,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5589,22 +5589,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>227.3238722865108</v>
       </c>
       <c r="L18" t="n">
-        <v>1288.32563221405</v>
+        <v>841.2209420433994</v>
       </c>
       <c r="M18" t="n">
-        <v>2030.299435654558</v>
+        <v>1609.589088435861</v>
       </c>
       <c r="N18" t="n">
-        <v>2374.820091292176</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>237.7764125461481</v>
+        <v>563.4612303381598</v>
       </c>
       <c r="C19" t="n">
-        <v>237.7764125461481</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D19" t="n">
-        <v>237.7764125461481</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E19" t="n">
-        <v>237.7764125461481</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F19" t="n">
-        <v>237.7764125461481</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V19" t="n">
-        <v>755.1831334811261</v>
+        <v>745.1096951683995</v>
       </c>
       <c r="W19" t="n">
-        <v>465.7659634441654</v>
+        <v>745.1096951683995</v>
       </c>
       <c r="X19" t="n">
-        <v>237.7764125461481</v>
+        <v>745.1096951683995</v>
       </c>
       <c r="Y19" t="n">
-        <v>237.7764125461481</v>
+        <v>745.1096951683995</v>
       </c>
     </row>
     <row r="20">
@@ -5747,55 +5747,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,22 +5826,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>222.5746515181233</v>
+        <v>227.3238722865108</v>
       </c>
       <c r="L21" t="n">
-        <v>802.0403666355637</v>
+        <v>841.2209420433994</v>
       </c>
       <c r="M21" t="n">
-        <v>1570.408513028025</v>
+        <v>1609.589088435861</v>
       </c>
       <c r="N21" t="n">
-        <v>2374.820091292176</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>244.1070389581962</v>
+        <v>994.3109288932102</v>
       </c>
       <c r="C22" t="n">
-        <v>244.1070389581962</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581962</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5917,7 +5917,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5938,22 +5938,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347409</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609663</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V22" t="n">
-        <v>935.9652529689266</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W22" t="n">
-        <v>646.5480829319661</v>
+        <v>994.3109288932102</v>
       </c>
       <c r="X22" t="n">
-        <v>646.5480829319661</v>
+        <v>994.3109288932102</v>
       </c>
       <c r="Y22" t="n">
-        <v>425.7555037884359</v>
+        <v>994.3109288932102</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805475</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.2170914602865</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823795</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>508.1073603047986</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L24" t="n">
-        <v>1122.004430061687</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="M24" t="n">
-        <v>1890.372576454149</v>
+        <v>542.909971047825</v>
       </c>
       <c r="N24" t="n">
-        <v>1890.372576454149</v>
+        <v>1347.321549311976</v>
       </c>
       <c r="O24" t="n">
-        <v>2559.836337756808</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P24" t="n">
-        <v>2559.836337756808</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>349.4607221898738</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>180.5245392619669</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>180.5245392619669</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471194</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1379.229518531123</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>820.5263570570741</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>531.1091870201135</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>531.1091870201135</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>531.1091870201135</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6230,22 +6230,22 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6291,34 +6291,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>629.3975440735805</v>
+        <v>1609.589088435861</v>
       </c>
       <c r="N27" t="n">
-        <v>1433.809122337731</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O27" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
         <v>2623.573505376138</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>692.3809108364828</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>523.4447279085761</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6382,16 +6382,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765189</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>531.397718270632</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>920.3704617345002</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>692.3809108364828</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>692.3809108364828</v>
       </c>
     </row>
     <row r="29">
@@ -6440,49 +6440,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,31 +6528,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L30" t="n">
-        <v>711.1141612171746</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M30" t="n">
-        <v>1479.482307609636</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N30" t="n">
-        <v>2283.893885873787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>750.8748194215254</v>
+        <v>439.5324299542166</v>
       </c>
       <c r="C31" t="n">
-        <v>637.6995017749895</v>
+        <v>326.3571123076804</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440245</v>
+        <v>326.3571123076804</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430021</v>
+        <v>234.204884006658</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264624</v>
+        <v>143.0758017901183</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276536</v>
+        <v>143.0758017901183</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.251007986467</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933501</v>
+        <v>369.0876362933499</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667508</v>
+        <v>671.4509053667505</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962051</v>
+        <v>997.6688721962048</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1880.811824899269</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1736.652680096192</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1321.791523655921</v>
+        <v>1136.336733737481</v>
       </c>
       <c r="W31" t="n">
-        <v>1088.135218900331</v>
+        <v>902.6804289818914</v>
       </c>
       <c r="X31" t="n">
-        <v>915.9065332836848</v>
+        <v>730.4517433652447</v>
       </c>
       <c r="Y31" t="n">
-        <v>750.8748194215254</v>
+        <v>565.4200295030856</v>
       </c>
     </row>
     <row r="32">
@@ -6695,37 +6695,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.686330625496</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7023,16 +7023,16 @@
         <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>2056.693778606511</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="N36" t="n">
-        <v>2623.573505376138</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="O36" t="n">
-        <v>2623.573505376138</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504506</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103123</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982967</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
@@ -7099,7 +7099,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7151,19 +7151,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,10 +7172,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,37 +7184,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7260,7 +7260,7 @@
         <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>2056.693778606511</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504506</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103122</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="41">
@@ -7409,10 +7409,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7427,10 +7427,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7488,19 +7488,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>124.9108272079269</v>
       </c>
       <c r="K42" t="n">
-        <v>508.1073603047985</v>
+        <v>535.8010960524396</v>
       </c>
       <c r="L42" t="n">
-        <v>1122.004430061687</v>
+        <v>1149.698165809328</v>
       </c>
       <c r="M42" t="n">
-        <v>1890.372576454149</v>
+        <v>1149.698165809328</v>
       </c>
       <c r="N42" t="n">
-        <v>2623.573505376138</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O42" t="n">
         <v>2623.573505376138</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254956</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,19 +7722,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>194.3570488013782</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9720,22 +9720,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>204.3627514792839</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9969,7 +9969,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10203,7 +10203,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -10671,19 +10671,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -11145,13 +11145,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>119.2934573152662</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23467,22 +23467,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>38.2231125035899</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>260.9337638673642</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>42.05411045193875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,13 +23899,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>27.33984058837406</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,22 +23938,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>13.65404714518712</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,19 +24181,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>202.6010493677087</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>8.511271146934746</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>63.95958932290486</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0576765518769</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,19 +24601,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>39.57764404435184</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24649,19 +24649,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>82.39383318338542</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965538</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>48.31044851244503</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571503</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>183.6002420192543</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>958021.1963573872</v>
+        <v>958021.1963573871</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>958021.1963573871</v>
+        <v>958021.1963573872</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>958021.1963573871</v>
+        <v>958021.196357387</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>958021.1963573871</v>
+        <v>958021.1963573872</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>958021.1963573872</v>
+        <v>958021.196357387</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>958021.1963573871</v>
+        <v>958021.1963573872</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>996714.2364959121</v>
+        <v>996714.236495912</v>
       </c>
     </row>
     <row r="12">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431046.9291787488</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="C2" t="n">
         <v>431046.9291787487</v>
@@ -26326,31 +26326,31 @@
         <v>410580.5127245943</v>
       </c>
       <c r="G2" t="n">
-        <v>410580.5127245943</v>
+        <v>410580.5127245944</v>
       </c>
       <c r="H2" t="n">
-        <v>410580.5127245943</v>
+        <v>410580.5127245944</v>
       </c>
       <c r="I2" t="n">
-        <v>410580.5127245943</v>
+        <v>410580.5127245944</v>
       </c>
       <c r="J2" t="n">
-        <v>410580.5127245943</v>
+        <v>410580.5127245944</v>
       </c>
       <c r="K2" t="n">
-        <v>427163.2442125332</v>
+        <v>427163.2442125333</v>
       </c>
       <c r="L2" t="n">
         <v>431046.9291787486</v>
       </c>
       <c r="M2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="N2" t="n">
         <v>431046.9291787487</v>
       </c>
       <c r="O2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="P2" t="n">
         <v>431046.9291787487</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284559</v>
+        <v>44162.60530284557</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086689</v>
+        <v>10342.90680086696</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284561</v>
+        <v>44162.60530284557</v>
       </c>
     </row>
     <row r="4">
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758361</v>
+        <v>787.7936905758797</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758372</v>
+        <v>787.793690575863</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758438</v>
+        <v>787.7936905758824</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758809</v>
+        <v>787.7936905758824</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477238</v>
+        <v>18952.41620477237</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.5809318963</v>
+        <v>23206.58093189637</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189637</v>
       </c>
       <c r="N4" t="n">
         <v>23206.58093189635</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="P4" t="n">
         <v>23206.58093189635</v>
@@ -26485,31 +26485,31 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022278</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-380839.1672798241</v>
+        <v>-380839.1672798243</v>
       </c>
       <c r="C6" t="n">
         <v>209128.7119347201</v>
       </c>
       <c r="D6" t="n">
-        <v>209128.7119347203</v>
+        <v>209128.7119347201</v>
       </c>
       <c r="E6" t="n">
-        <v>-207354.6433915942</v>
+        <v>-207452.1025175667</v>
       </c>
       <c r="F6" t="n">
-        <v>317805.3930853019</v>
+        <v>317707.9339593297</v>
       </c>
       <c r="G6" t="n">
-        <v>317805.3930853019</v>
+        <v>317707.9339593299</v>
       </c>
       <c r="H6" t="n">
-        <v>317805.3930853018</v>
+        <v>317707.9339593297</v>
       </c>
       <c r="I6" t="n">
-        <v>317805.3930853018</v>
+        <v>317707.9339593297</v>
       </c>
       <c r="J6" t="n">
-        <v>141382.1738927089</v>
+        <v>141284.7147667368</v>
       </c>
       <c r="K6" t="n">
-        <v>267420.0141746924</v>
+        <v>267401.5204367582</v>
       </c>
       <c r="L6" t="n">
         <v>299782.33562596</v>
       </c>
       <c r="M6" t="n">
-        <v>175324.2271929897</v>
+        <v>175324.2271929898</v>
       </c>
       <c r="N6" t="n">
         <v>310125.242426827</v>
       </c>
       <c r="O6" t="n">
-        <v>310125.2424268269</v>
+        <v>310125.242426827</v>
       </c>
       <c r="P6" t="n">
         <v>265962.6371239814</v>
@@ -26704,25 +26704,25 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964061</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964068</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964067</v>
@@ -26738,43 +26738,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26926,19 +26926,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108362</v>
+        <v>12.9286335010837</v>
       </c>
       <c r="M2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855696</v>
       </c>
     </row>
     <row r="3">
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>77.16877347360349</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>259.4780048214981</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>5.400124791776761e-13</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,10 +27552,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>81.37511273779137</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>67.98667701305627</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>343.4498515845743</v>
       </c>
       <c r="X5" t="n">
-        <v>269.4012139341656</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>67.9564908455058</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>182.103453788898</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,7 +27907,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>249.8413964654216</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>3.730745193173618</v>
       </c>
     </row>
     <row r="9">
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>128.9114554736399</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>69.82361682150338</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855696</v>
       </c>
     </row>
     <row r="32">
@@ -29797,13 +29797,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -31145,7 +31145,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>35.71704454958012</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,19 +31355,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>87.78329382423925</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,19 +31592,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653305</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31622,19 +31622,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,37 +31762,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,31 +31835,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>62.57097248997864</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>241.4090972701572</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961188</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,31 +32072,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>196.1430416967706</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>245.2687781552862</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,22 +32312,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>4.797192695340925</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>425.8974584957645</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,25 +32546,25 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>4.797192695340925</v>
       </c>
       <c r="L21" t="n">
-        <v>353.0329386354457</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,34 +32783,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>203.4934250822616</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304423</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,28 +33020,28 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>213.9849829127201</v>
+        <v>0.9375118102116744</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446464</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>48.48571443651716</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>91.84465193776663</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -33287,10 +33287,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,7 +33506,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
         <v>224.6051223555648</v>
@@ -33524,10 +33524,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,28 +33743,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>273.8226464915811</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,25 +33883,25 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,16 +33910,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>212.6272478467031</v>
       </c>
       <c r="N39" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -33998,10 +33998,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,16 +34147,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>28.72006177842054</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,13 +34217,13 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>392.6063366508803</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -34235,10 +34235,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34390,7 +34390,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S44" t="n">
         <v>76.06970478104648</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34457,7 +34457,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>61.82438116372078</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M12" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>492.6751721024423</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,16 +35729,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M15" t="n">
-        <v>519.7140715247522</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>496.5348529875712</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>131.4209907335605</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>749.4684883237461</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,19 +36200,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>131.4209907335605</v>
       </c>
       <c r="L21" t="n">
-        <v>585.3189041590307</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>454.7594999145467</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>64.38097739326237</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655656</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109055</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>537.5560127407017</v>
+        <v>324.5085416381933</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>175.1095124747368</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>343.1107267700517</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412255</v>
+        <v>67.71102679412249</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
         <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.4406081491598</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043177</v>
+        <v>94.42895660043172</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
         <v>572.6057846157851</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,19 +37391,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>572.6057846157851</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>525.0887213238661</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,10 +37628,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>536.1982776746847</v>
       </c>
       <c r="N39" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520613</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M40" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414413</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>27.97347045216268</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37865,13 +37865,13 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>740.6069989111005</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38105,7 +38105,7 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
